--- a/biology/Origine et évolution du vivant/Rotifera_(classification_phylogénétique)/Rotifera_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Rotifera_(classification_phylogénétique)/Rotifera_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rotifera_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Rotifera_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page présente un arbre phylogénétique des Syndermata (Rotifera s.l., Rotifères lato sensu, ou Syndermates), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rotifera_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Rotifera_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -646,7 +660,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rotifera_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Rotifera_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -664,7 +678,9 @@
           <t>Débat scientifique relatif à la phylogénie des Syndermata</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Si la racine de l'arbre n'est pas conforme à l'hypothèse ci-dessus, mais se trouve plus classiquement entre les Acanthocéphales et les Seisonidés, le cladogramme résultant pose les Acanthocéphales et les Rotifères en groupes-frères :
 └─o Syndermata
@@ -684,7 +700,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rotifera_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Rotifera_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -704,10 +720,49 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-Martin Garcia-Varela, Michael P. Cummings, Gerardo Perez-Ponce de Leon, Scott Lyell Gardner et Juan P. Laclette : « Phylogenetic Analysis Based on 18S Ribosomal RNA Gene Sequences Supports the Existence of Class Polyacanthocephala (Acanthocephala) », Molecular Phylogenetics and Evolution, vol. 23, 2002, pp. 288-292
-Liens internes
-Le vivant (classification phylogénétique)
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Martin Garcia-Varela, Michael P. Cummings, Gerardo Perez-Ponce de Leon, Scott Lyell Gardner et Juan P. Laclette : « Phylogenetic Analysis Based on 18S Ribosomal RNA Gene Sequences Supports the Existence of Class Polyacanthocephala (Acanthocephala) », Molecular Phylogenetics and Evolution, vol. 23, 2002, pp. 288-292</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rotifera_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rotifera_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
 Opisthokonta (classification phylogénétique)
 Metazoa (classification phylogénétique)
